--- a/lg cns/설문지.xlsx
+++ b/lg cns/설문지.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\capstone)\제출 자료\202412) 최종 보고서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\capstone)\causal-inference-capstone-project\lg cns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D916E7E-1CA1-4D0C-9153-A936F287087F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BB604F-2AB7-41DB-BB2D-A4289D1F3EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{828C0AF6-AF9C-4120-9828-753687542BCC}"/>
   </bookViews>
@@ -119,27 +119,103 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">안녕하십니까? 저희는 고려대학교 경영대학원 Business Analytics 소속으로 인과추론 솔루션을 주제로 캡스톤 프로젝트를 진행하고 있습니다. 
+    <t>제공된 솔루션을 도입했을 때, 기존 분석 프로세스보다 업무 능률이 개선될 것으로 예상하십니까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제공된 솔루션이 상관관계 분석에서 보지 못한 인과효과를 확인하는데 도움이 된다고 생각하십니까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀하는 제공된 솔루션을 향후 업무에 활용할 의향이 있습니까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">안녕하십니까. 저희는 고려대학교 경영대학원 Business Analytics 소속으로 인과추론 솔루션을 주제로 캡스톤 프로젝트를 진행하고 있습니다. 
 본 설문은 LG CNS 컨설턴트분들의 전문적인 의견을 바탕으로 솔루션의 실효성을 평가하고, 이를 개선하기 위한 중요한 자료로 활용될 예정입니다.
 응답해 주신 모든 내용은 익명으로 처리되며 연구 외 다른 목적으로 사용되지 않습니다. 
 적극적인 의견 부탁드리며 소중한 시간을 내어 설문에 응답해주시면 감사하겠습니다.
-[설문 개요]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[솔루션 link] - ※ PC 권장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+https://causal-inference-capstone-project-kst99xd2xhlcrifryfztdr.streamlit.app/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[제공 dataset]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Numpy A/B Test dataset
+- 기후동행카드 dataset
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[설문 개요]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 - 설문기간 : 2024. 12. 30 ~
 - 소요시간 : 약 1분
 - 응답형식 : 객관식 및 주관식 문항
 - 응답문항 : 1-매우 그렇지 않다 / 5-매우 그렇다 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제공된 솔루션을 도입했을 때, 기존 분석 프로세스보다 업무 능률이 개선될 것으로 예상하십니까?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제공된 솔루션이 상관관계 분석에서 보지 못한 인과효과를 확인하는데 도움이 된다고 생각하십니까?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>귀하는 제공된 솔루션을 향후 업무에 활용할 의향이 있습니까?</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -174,7 +250,7 @@
     </font>
     <font>
       <b/>
-      <sz val="20"/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -317,20 +393,20 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -679,22 +755,22 @@
     <col min="3" max="7" width="17" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:7" ht="27.6" x14ac:dyDescent="0.4">
+      <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="10"/>
-    </row>
-    <row r="2" spans="1:7" ht="176.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
+      <c r="B1" s="14"/>
+    </row>
+    <row r="2" spans="1:7" ht="299.39999999999998" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
@@ -788,7 +864,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -801,7 +877,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -822,7 +898,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -844,11 +920,11 @@
       <c r="B18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="13"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
